--- a/보고서/프로젝트요구사항 명세서.xlsx
+++ b/보고서/프로젝트요구사항 명세서.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\01.coding\HealthKiosk-프로젝트\pilot project 파일\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7042AB2-8F67-4085-9C8C-CD0CA0E828E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26F16952-2CB2-429F-A1E6-877FEA60C9F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,17 +18,44 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'요구사항 정의서'!$A$1:$I$31</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="121">
+  <si>
+    <t>요구사항 명세서</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 요구사항(SFR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능 담당자 이름 작성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
   <si>
     <t>요구사항 ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -58,11 +85,73 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>필수 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>회원가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원가입</t>
+    <t>Member01_REG01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer, Buisiness 권한으로 회원가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>email, pass, addr, birth, role, gend, phone, name</t>
+  </si>
+  <si>
+    <t>image, bname, baddr, bphone</t>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member01_REG02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복 체크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 중복 체크 및 비밀번호 재확인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디, 비밀번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member01_REG03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 여부로 S3에 이미지 업로드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지 파일</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member02</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -70,6 +159,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Member02_LOGIN01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>로그인 기능</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -82,43 +175,310 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Member02_LOGIN02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>자동 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 허용한 컴퓨터를 통해 자동 로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿠키</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member02_LOGIN03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등록된 이메일과 휴대전화를 이용하여 아이디 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일, 휴대전화번호</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Member02_LOGIN04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>비밀번호 찾기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>자동 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사용자가 허용한 컴퓨터를 통해 자동 로그인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>쿠키</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>필수 여부</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 요구사항(SFR)</t>
+    <t>등록된 이메일과 폰번호를 이용하여 비밀번호 재설정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home01_LOGOUT01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃 버튼을 클릭하면 로그인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 유저</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원정보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home02_EditInfo01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 수정 버튼을 클릭하면 회원 정보 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Home01_RmInfo02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 정보 삭제 버튼을 클릭하면 회원삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uno</t>
+  </si>
+  <si>
+    <t>Developer01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer01_EditPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 수정 시 프로필 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 로그인 유저, title, tend</t>
+  </si>
+  <si>
+    <t>imgUrl, fileName, content, skill, school, dCareer, dLicense</t>
+  </si>
+  <si>
+    <t>Developer01_RmPro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 삭제 시 프로필 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uno, dno</t>
+  </si>
+  <si>
+    <t>Developer02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로필 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer02_reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 프로필 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer02_sel01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내 프로필 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer02_sel02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 프로필 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다른 사람 프로필 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 로그인 유저, dno</t>
+  </si>
+  <si>
+    <t>Developer03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer03_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개발자 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Developer03_Info</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 등록한 개발자 정보 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dno, uno</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business01_Reg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business 회원이 프로젝트 등록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업가 로그인 유저, title, payment, startDate, EndDate,content, applyDate, uno</t>
+  </si>
+  <si>
+    <t>process, field, files</t>
+  </si>
+  <si>
+    <t>프로젝트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business01_Edit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busniess 회원이 등록한 프로젝트 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business01_Del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Busniess 회원이 등록한 프로젝트 삭제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bno, uno</t>
+  </si>
+  <si>
+    <t>Business02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 찾기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Business02_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>홈 페이지에서 프로젝트 찾기 조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 유저, bno</t>
+  </si>
+  <si>
+    <t>프로젝트 관리 요구사항(PMR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 계획 및 구성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PMR01_WORK_FLOW</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로젝트 기간 내 각 작업에 대한 일정을 산출 하고 일정표를 제출한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정표</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -126,34 +486,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 계획 및 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>프로젝트 산출물 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PMR01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PMR01_WORK_FLOW</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 계획 및 구성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 기간 내 각 작업에 대한 일정을 산출 하고 일정표를 제출한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정표</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>BOARD02_RESULT</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,323 +506,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>프로젝트 관리 요구사항(PMR)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>요구사항 명세서</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기능 담당자 이름 작성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>중복 체크</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디, 비밀번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 중복 체크 및 비밀번호 재확인</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이메일, 휴대전화번호</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아이디 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 이메일과 휴대전화를 이용하여 아이디 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>등록된 이메일과 폰번호를 이용하여 비밀번호 재설정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home01_LOGOUT01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그아웃 버튼을 클릭하면 로그인 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>로그인 유저</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>김규민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer, Buisiness 권한으로 회원가입</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>email, pass, addr, birth, role, gend, phone, name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>image, bname, baddr, bphone</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 여부로 S3에 이미지 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 파일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이미지 업로드</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member02_LOGIN01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member02_LOGIN02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member02_LOGIN03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member02_LOGIN04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member01_REG01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member01_REG02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Member01_REG03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 수정 버튼을 클릭하면 회원 정보 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 정보 삭제 버튼을 클릭하면 회원삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원정보</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home02_EditInfo01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Home01_RmInfo02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer01_EditPro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer01_RmPro</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer02_reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer02_sel01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer02_sel02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 프로필 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 프로필 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>내 프로필 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>다른 사람 프로필 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer03</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer03_search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>개발자 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Developer03_Info</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>현재 등록한 개발자 정보 조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dno, uno</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 수정 시 프로필 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로필 삭제 시 프로필 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business01_Reg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business 회원이 프로젝트 등록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business01_Edit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business01_Del</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Busniess 회원이 등록한 프로젝트 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Busniess 회원이 등록한 프로젝트 삭제</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>프로젝트 찾기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Business02_search</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈 페이지에서 프로젝트 찾기 조회</t>
+    <t>imgUrl, fileName, content, skill, school, dCareer, dLicense</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>김규민,이준호</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -824,7 +848,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -915,12 +939,21 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -948,13 +981,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1244,7 +1271,7 @@
   <dimension ref="B1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="33" zoomScalePageLayoutView="23" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1262,139 +1289,139 @@
   <sheetData>
     <row r="1" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B1" s="18" t="s">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="E1" s="24" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F1" s="25"/>
     </row>
     <row r="2" spans="2:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B2" s="20" t="s">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E2" s="24" t="s">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="F2" s="25"/>
       <c r="H2" s="26" t="s">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="2:9" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="C5" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>58</v>
-      </c>
       <c r="I5" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="33"/>
-      <c r="C6" s="32"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="G6" s="8" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="H6" s="8"/>
       <c r="I6" s="12" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="33"/>
-      <c r="C7" s="32"/>
+      <c r="B7" s="36"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="1" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="E7" s="6" t="s">
-        <v>61</v>
+        <v>24</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="G7" s="8" t="s">
-        <v>60</v>
+        <v>26</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="13" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="32" t="s">
-        <v>9</v>
+      <c r="B8" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="G8" s="8" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="13" t="s">
@@ -1402,19 +1429,19 @@
       </c>
     </row>
     <row r="9" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="33"/>
-      <c r="C9" s="32"/>
+      <c r="B9" s="36"/>
+      <c r="C9" s="35"/>
       <c r="D9" s="1" t="s">
-        <v>63</v>
+        <v>34</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="13" t="s">
@@ -1422,33 +1449,33 @@
       </c>
     </row>
     <row r="10" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="33"/>
-      <c r="C10" s="32"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="1" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="E10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>41</v>
       </c>
       <c r="H10" s="1"/>
       <c r="I10" s="13" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="33"/>
-      <c r="C11" s="32"/>
+      <c r="B11" s="36"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="1" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>44</v>
@@ -1462,17 +1489,17 @@
       </c>
     </row>
     <row r="12" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="34" t="s">
-        <v>47</v>
+      <c r="B12" s="37" t="s">
+        <v>45</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>46</v>
       </c>
       <c r="D12" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" s="15" t="s">
         <v>48</v>
-      </c>
-      <c r="E12" s="15" t="s">
-        <v>45</v>
       </c>
       <c r="F12" s="16" t="s">
         <v>49</v>
@@ -1486,38 +1513,44 @@
       </c>
     </row>
     <row r="13" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="35"/>
-      <c r="C13" s="37" t="s">
-        <v>78</v>
+      <c r="B13" s="38"/>
+      <c r="C13" s="40" t="s">
+        <v>51</v>
       </c>
       <c r="D13" s="16" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="E13" s="15" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F13" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="G13" s="19"/>
-      <c r="H13" s="16"/>
+        <v>54</v>
+      </c>
+      <c r="G13" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>17</v>
+      </c>
       <c r="I13" s="17" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="36"/>
-      <c r="C14" s="38"/>
+      <c r="B14" s="39"/>
+      <c r="C14" s="41"/>
       <c r="D14" s="1" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="G14" s="8"/>
+        <v>57</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="H14" s="1"/>
       <c r="I14" s="13" t="s">
         <v>18</v>
@@ -1528,146 +1561,160 @@
     </row>
     <row r="16" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G16" s="22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I16" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="C17" s="39" t="s">
-        <v>70</v>
+      <c r="B17" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>60</v>
       </c>
       <c r="D17" s="27" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="E17" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F17" s="27" t="s">
+        <v>63</v>
+      </c>
+      <c r="G17" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H17" s="27" t="s">
+        <v>119</v>
+      </c>
+      <c r="I17" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="33"/>
+      <c r="C18" s="43"/>
+      <c r="D18" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="27" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="F17" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="31"/>
-      <c r="C18" s="40"/>
-      <c r="D18" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" s="27" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" s="28"/>
       <c r="H18" s="27"/>
       <c r="I18" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="30" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="39" t="s">
-        <v>77</v>
+      <c r="B19" s="32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>71</v>
       </c>
       <c r="D19" s="27" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="F19" s="27" t="s">
-        <v>89</v>
-      </c>
-      <c r="G19" s="28"/>
-      <c r="H19" s="27"/>
+        <v>73</v>
+      </c>
+      <c r="G19" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="28" t="s">
+        <v>65</v>
+      </c>
       <c r="I19" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:9" ht="40.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="41"/>
-      <c r="C20" s="42"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="44"/>
       <c r="D20" s="27" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F20" s="27" t="s">
-        <v>87</v>
-      </c>
-      <c r="G20" s="28"/>
+        <v>75</v>
+      </c>
+      <c r="G20" s="28" t="s">
+        <v>69</v>
+      </c>
       <c r="H20" s="27"/>
       <c r="I20" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="21" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B21" s="31"/>
-      <c r="C21" s="40"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="43"/>
       <c r="D21" s="27" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="F21" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="G21" s="28"/>
+        <v>78</v>
+      </c>
+      <c r="G21" s="28" t="s">
+        <v>79</v>
+      </c>
       <c r="H21" s="27"/>
       <c r="I21" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B22" s="30" t="s">
-        <v>91</v>
+      <c r="B22" s="32" t="s">
+        <v>80</v>
       </c>
       <c r="C22" s="27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D22" s="27" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="F22" s="27" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="G22" s="28" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="H22" s="27"/>
       <c r="I22" s="29" t="s">
@@ -1675,21 +1722,21 @@
       </c>
     </row>
     <row r="23" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="31"/>
+      <c r="B23" s="33"/>
       <c r="C23" s="27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="D23" s="27" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="F23" s="27" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="G23" s="28" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="H23" s="27"/>
       <c r="I23" s="29" t="s">
@@ -1697,82 +1744,94 @@
       </c>
     </row>
     <row r="24" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="C24" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="G24" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H24" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="34"/>
+      <c r="C25" s="42" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="27" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>96</v>
+      </c>
+      <c r="F25" s="27" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="H25" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="I25" s="29" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="33"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="E26" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="F26" s="27" t="s">
         <v>100</v>
       </c>
-      <c r="C24" s="27" t="s">
+      <c r="G26" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="D24" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>101</v>
-      </c>
-      <c r="F24" s="27" t="s">
-        <v>104</v>
-      </c>
-      <c r="G24" s="28"/>
-      <c r="H24" s="27"/>
-      <c r="I24" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="41"/>
-      <c r="C25" s="39" t="s">
-        <v>102</v>
-      </c>
-      <c r="D25" s="27" t="s">
-        <v>105</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>107</v>
-      </c>
-      <c r="F25" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="28"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="31"/>
-      <c r="C26" s="40"/>
-      <c r="D26" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="F26" s="27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G26" s="28"/>
       <c r="H26" s="27"/>
       <c r="I26" s="29" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="2:9" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B27" s="43" t="s">
-        <v>111</v>
+      <c r="B27" s="30" t="s">
+        <v>102</v>
       </c>
       <c r="C27" s="27" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="D27" s="27" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F27" s="27" t="s">
-        <v>114</v>
-      </c>
-      <c r="G27" s="28"/>
+        <v>105</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>106</v>
+      </c>
       <c r="H27" s="27"/>
       <c r="I27" s="29" t="s">
         <v>18</v>
@@ -1780,54 +1839,54 @@
     </row>
     <row r="28" spans="2:9" ht="39" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B28" s="20" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="G28" s="21"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G29" s="22" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I29" s="4" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:9" ht="33" x14ac:dyDescent="0.3">
       <c r="B30" s="10" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>24</v>
+        <v>109</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>27</v>
+        <v>110</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F30" s="8" t="s">
-        <v>29</v>
+        <v>111</v>
       </c>
       <c r="G30" s="8" t="s">
-        <v>30</v>
+        <v>112</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="13" t="s">
@@ -1836,22 +1895,22 @@
     </row>
     <row r="31" spans="2:9" ht="33.75" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B31" s="7" t="s">
-        <v>23</v>
+        <v>113</v>
       </c>
       <c r="C31" s="23" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="E31" s="23" t="s">
-        <v>32</v>
+        <v>116</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>33</v>
+        <v>117</v>
       </c>
       <c r="G31" s="11" t="s">
-        <v>34</v>
+        <v>118</v>
       </c>
       <c r="H31" s="5"/>
       <c r="I31" s="14" t="s">
